--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Sylfaen"/>
       <family val="2"/>
@@ -43,9 +43,6 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -114,9 +111,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,24 +579,10 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>7488593429379</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>nini vashakidze</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G7" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">
@@ -610,24 +590,10 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>12319083</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>aleksandre mataradze</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">
@@ -635,24 +601,10 @@
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>8742959879</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>julieta gelashvili</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="n">
@@ -660,24 +612,10 @@
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>86957895658</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ana bukia </t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="n">
@@ -685,24 +623,10 @@
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>йй</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>йй</t>
-        </is>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="n">
@@ -710,24 +634,10 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>jgkjghjhg</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>gjhhjkgj</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="n">
@@ -735,24 +645,10 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>поплпо</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>цуацулёпшп</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="n">
@@ -760,24 +656,10 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>55484837373</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Dimitri jioshivi</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="n">
@@ -785,24 +667,10 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>huihihoi</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>ertthe`uioo</t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="n">
@@ -810,24 +678,10 @@
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>wef</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>34retq</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="4" t="n">
@@ -835,24 +689,10 @@
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="n">
@@ -860,24 +700,10 @@
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>wewef</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>e4234r</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="4" t="n">
@@ -885,24 +711,10 @@
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>kjhkjh</t>
-        </is>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>qwedq</t>
-        </is>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="4" t="n">
@@ -910,24 +722,10 @@
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>sdvsdv</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>SDVSDV</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="4" t="n">
@@ -935,24 +733,10 @@
       </c>
       <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="n"/>
-      <c r="D21" s="9" t="inlineStr">
-        <is>
-          <t>укпукп</t>
-        </is>
-      </c>
-      <c r="E21" s="9" t="inlineStr">
-        <is>
-          <t>укпукп</t>
-        </is>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="4" t="n">
@@ -960,24 +744,10 @@
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t>898989</t>
-        </is>
-      </c>
-      <c r="E22" s="9" t="inlineStr">
-        <is>
-          <t>DIMITRI JIOSHVILI</t>
-        </is>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G22" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="n">
@@ -985,24 +755,10 @@
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>jhkejrhgkj</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>ERHGKJH</t>
-        </is>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="4" t="n">
@@ -1010,24 +766,10 @@
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>2982430482308</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>AKAKI TSERETELI</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G24" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Sylfaen"/>
       <family val="2"/>
@@ -43,6 +43,9 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -111,6 +114,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -579,10 +585,24 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>7488593429379</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>nini vashakidze</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">
@@ -590,10 +610,24 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>12319083</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>aleksandre mataradze</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">
@@ -601,10 +635,24 @@
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>8742959879</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>julieta gelashvili</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="n">
@@ -612,10 +660,24 @@
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>86957895658</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ana bukia </t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="n">
@@ -623,10 +685,24 @@
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>йй</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>йй</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="n">
@@ -634,10 +710,24 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>jgkjghjhg</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>gjhhjkgj</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="n">
@@ -645,10 +735,24 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>поплпо</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>ЦУАЦУЛЁПШП</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="n">
@@ -656,10 +760,24 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>55484837373</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Dimitri jioshivi</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="n">
@@ -667,10 +785,24 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>huihihoi</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>ertthe`uioo</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="n">
@@ -678,10 +810,24 @@
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>qweqw</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>wdwdqw</t>
+        </is>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="4" t="n">
@@ -689,10 +835,24 @@
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>34retq</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="n">
@@ -700,10 +860,24 @@
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="G18" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="4" t="n">
@@ -711,10 +885,24 @@
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>wewef</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>e4234r</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="4" t="n">
@@ -722,10 +910,24 @@
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>765832345</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>MAKSIM BORONENKOSHVILI</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="4" t="n">
@@ -733,10 +935,24 @@
       </c>
       <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>sdvsdv</t>
+        </is>
+      </c>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>SDVSDV</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="4" t="n">
@@ -744,10 +960,24 @@
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>укпукп</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>УКПУКП</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="n">
@@ -755,10 +985,24 @@
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>898989</t>
+        </is>
+      </c>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>DIMITRI JIOSHVILI</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="4" t="n">
@@ -766,10 +1010,24 @@
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>jhkejrhgkj</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>ERHGKJH</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="4" t="n">
@@ -777,10 +1035,24 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>2982430482308</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>AKAKI TSERETELI</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G25" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="4" t="n">
@@ -788,10 +1060,24 @@
       </c>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>39434532090</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>BATU SKHIRTLADZE</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -587,16 +587,16 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>7488593429379</t>
+          <t>дцуволр</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>nini vashakidze</t>
+          <t>отлцоцв</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G7" s="9" t="inlineStr">
         <is>
@@ -612,16 +612,16 @@
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>12319083</t>
+          <t>wdqwdq</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>aleksandre mataradze</t>
+          <t>qqwdqwd</t>
         </is>
       </c>
       <c r="F8" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="9" t="inlineStr">
         <is>
@@ -635,24 +635,10 @@
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>8742959879</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>julieta gelashvili</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="n">
@@ -660,24 +646,10 @@
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>86957895658</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ana bukia </t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="n">
@@ -685,24 +657,10 @@
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>йй</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>йй</t>
-        </is>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="n">
@@ -710,24 +668,10 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>jgkjghjhg</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>gjhhjkgj</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="n">
@@ -735,24 +679,10 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>поплпо</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>ЦУАЦУЛЁПШП</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="n">
@@ -760,24 +690,10 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>55484837373</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Dimitri jioshivi</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="n">
@@ -785,24 +701,10 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>huihihoi</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>ertthe`uioo</t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="n">
@@ -810,24 +712,10 @@
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>qweqw</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>wdwdqw</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="4" t="n">
@@ -835,24 +723,10 @@
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>wef</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>34retq</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="n">
@@ -860,24 +734,10 @@
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="4" t="n">
@@ -885,24 +745,10 @@
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>wewef</t>
-        </is>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>e4234r</t>
-        </is>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="4" t="n">
@@ -910,24 +756,10 @@
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>765832345</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>MAKSIM BORONENKOSHVILI</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="4" t="n">
@@ -935,24 +767,10 @@
       </c>
       <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="n"/>
-      <c r="D21" s="9" t="inlineStr">
-        <is>
-          <t>sdvsdv</t>
-        </is>
-      </c>
-      <c r="E21" s="9" t="inlineStr">
-        <is>
-          <t>SDVSDV</t>
-        </is>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="4" t="n">
@@ -960,24 +778,10 @@
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t>укпукп</t>
-        </is>
-      </c>
-      <c r="E22" s="9" t="inlineStr">
-        <is>
-          <t>УКПУКП</t>
-        </is>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G22" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="n">
@@ -985,24 +789,10 @@
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>898989</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>DIMITRI JIOSHVILI</t>
-        </is>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="4" t="n">
@@ -1010,24 +800,10 @@
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>jhkejrhgkj</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>ERHGKJH</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="4" t="n">
@@ -1035,24 +811,10 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>2982430482308</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>AKAKI TSERETELI</t>
-        </is>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G25" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="4" t="n">
@@ -1060,24 +822,10 @@
       </c>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>39434532090</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>BATU SKHIRTLADZE</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -585,18 +585,14 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>дцуволр</t>
-        </is>
-      </c>
+      <c r="D7" s="9" t="inlineStr"/>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>отлцоцв</t>
+          <t>NIKO PIROSMANI</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G7" s="9" t="inlineStr">
         <is>
@@ -610,24 +606,10 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>wdqwdq</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>qqwdqwd</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -585,14 +585,18 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="9" t="inlineStr"/>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>hih</t>
+        </is>
+      </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>NIKO PIROSMANI</t>
+          <t>IHHOI</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G7" s="9" t="inlineStr">
         <is>
@@ -606,10 +610,24 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>uoijooiuj</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>ᲓᲓᲓ</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">
@@ -617,10 +635,24 @@
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>ii</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>QWDQWD</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="n">
@@ -628,10 +660,24 @@
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>ieerjpgoi</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>OWJOPEJFOJ</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="n">
@@ -639,10 +685,24 @@
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>oipoim</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>LNOUPMI</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="n">
@@ -650,10 +710,24 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>HIHI</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>OUHIU</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="n">
@@ -661,10 +735,24 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>47298752985</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>JEMALI TSITSAKISHVILI</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="n">
@@ -672,10 +760,24 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -587,16 +587,16 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>hih</t>
+          <t>34805485334890</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>IHHOI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="9" t="inlineStr">
         <is>
@@ -612,16 +612,16 @@
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>uoijooiuj</t>
+          <t>838</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>ᲓᲓᲓ</t>
+          <t>DIMA</t>
         </is>
       </c>
       <c r="F8" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="9" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>ii</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>QWDQWD</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F9" s="9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G9" s="9" t="inlineStr">
         <is>
@@ -662,16 +662,16 @@
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>ieerjpgoi</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>OWJOPEJFOJ</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F10" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
@@ -687,16 +687,16 @@
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>oipoim</t>
+          <t>qqew</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>LNOUPMI</t>
+          <t>MAKSIM BORONENKOSHVILI</t>
         </is>
       </c>
       <c r="F11" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9" t="inlineStr">
         <is>
@@ -710,24 +710,10 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>HIHI</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>OUHIU</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="n">
@@ -735,24 +721,10 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>47298752985</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>JEMALI TSITSAKISHVILI</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="n">
@@ -760,24 +732,10 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -587,16 +587,16 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>34805485334890</t>
+          <t>7488593429379</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>NINI VASHAKIDZE</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G7" s="9" t="inlineStr">
         <is>
@@ -612,12 +612,12 @@
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>12319083</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DIMA</t>
+          <t>ALEKSANDRE MATARADZE</t>
         </is>
       </c>
       <c r="F8" s="9" t="n">
@@ -637,16 +637,16 @@
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>2304348</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>JONI KURBANOVI</t>
         </is>
       </c>
       <c r="F9" s="9" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G9" s="9" t="inlineStr">
         <is>
@@ -662,16 +662,16 @@
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8742959879</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>JULIETA GELASHVILI</t>
         </is>
       </c>
       <c r="F10" s="9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
@@ -687,16 +687,16 @@
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>qqew</t>
+          <t>86957895658</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>MAKSIM BORONENKOSHVILI</t>
+          <t xml:space="preserve">ANA BUKIA </t>
         </is>
       </c>
       <c r="F11" s="9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G11" s="9" t="inlineStr">
         <is>
@@ -710,10 +710,24 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>jgkjghjhg</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>gjhhjkgj</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="n">
@@ -721,10 +735,24 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>hiuh</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>wqwd</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="n">
@@ -732,10 +760,24 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>huihihoi</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>TTT</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="n">
@@ -743,10 +785,24 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>qweqw</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>wdwdqw</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="n">
@@ -754,10 +810,24 @@
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>dfsdfs</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="4" t="n">
@@ -765,10 +835,24 @@
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>опорп</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>прдоорп</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="n">
@@ -776,10 +860,24 @@
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>55001010832</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Erekle Pirtskhalava</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="4" t="n">
@@ -787,10 +885,24 @@
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>კპოკპო</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>იპკოკ</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="4" t="n">
@@ -798,10 +910,24 @@
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>jlkj</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>;klk</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="4" t="n">
@@ -809,10 +935,24 @@
       </c>
       <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>kjlk</t>
+        </is>
+      </c>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>jkjh;</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="4" t="n">
@@ -820,10 +960,24 @@
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>jlj</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>ljh</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="G22" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="n">
@@ -831,10 +985,24 @@
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>oijoi</t>
+        </is>
+      </c>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>kijio</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="4" t="n">
@@ -842,10 +1010,24 @@
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>oijoij</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>iojioji</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="4" t="n">
@@ -853,10 +1035,24 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>34retq</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="4" t="n">
@@ -864,10 +1060,24 @@
       </c>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>wefwef</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>wefwef</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="G26" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="4" t="n">
@@ -875,10 +1085,24 @@
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="G27" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="4" t="n">
@@ -886,10 +1110,24 @@
       </c>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="n"/>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>qwqw</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>qwdqwd</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="4" t="n">
@@ -897,10 +1135,24 @@
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>wewef</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
+          <t>E4234R</t>
+        </is>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="G29" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="4" t="n">
@@ -908,10 +1160,20 @@
       </c>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
+      <c r="D30" s="9" t="inlineStr"/>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>MAKSIM BORONENKOSHVILI</t>
+        </is>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="4" t="n">
@@ -919,10 +1181,24 @@
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>укпукп</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="4" t="n">
@@ -930,10 +1206,24 @@
       </c>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>898989</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>DIMITRI JIOSHVILI</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="4" t="n">
@@ -941,10 +1231,20 @@
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="n"/>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+      <c r="D33" s="9" t="inlineStr"/>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>ERHGKJH</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G33" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="4" t="n">
@@ -952,10 +1252,24 @@
       </c>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
-      <c r="G34" s="3" t="n"/>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>2982430482308</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>AKAKI TSERETELI</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G34" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="4" t="n">
@@ -963,10 +1277,24 @@
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>posefepok</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>APOWEFOK</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="4" t="n">
@@ -974,10 +1302,24 @@
       </c>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
-      <c r="G36" s="3" t="n"/>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>39434532090</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>BATU SKHIRTLADZE</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G36" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="4" t="n">
@@ -985,10 +1327,24 @@
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="n"/>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>293410328</t>
+        </is>
+      </c>
+      <c r="E37" s="9" t="inlineStr">
+        <is>
+          <t>GIORGI METREVELI</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="4" t="n">
@@ -996,10 +1352,20 @@
       </c>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="n"/>
+      <c r="D38" s="9" t="inlineStr"/>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>MALKHAZ LOMIDZE</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Sylfaen"/>
       <family val="2"/>
@@ -43,9 +43,6 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -114,9 +111,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,24 +579,10 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>7488593429379</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>NINI VASHAKIDZE</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G7" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">
@@ -610,24 +590,10 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>12319083</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>ALEKSANDRE MATARADZE</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">
@@ -635,24 +601,10 @@
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>2304348</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>JONI KURBANOVI</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="n">
@@ -660,24 +612,10 @@
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>8742959879</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>JULIETA GELASHVILI</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="n">
@@ -685,24 +623,10 @@
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>86957895658</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANA BUKIA </t>
-        </is>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="n">
@@ -710,24 +634,10 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>jgkjghjhg</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>gjhhjkgj</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="n">
@@ -735,24 +645,10 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>hiuh</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>wqwd</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="G13" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="n">
@@ -760,24 +656,10 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>huihihoi</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>TTT</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="n">
@@ -785,24 +667,10 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>qweqw</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>wdwdqw</t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="n">
@@ -810,24 +678,10 @@
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>dfsdfs</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="4" t="n">
@@ -835,24 +689,10 @@
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>опорп</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>прдоорп</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="n">
@@ -860,24 +700,10 @@
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>55001010832</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>Erekle Pirtskhalava</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="4" t="n">
@@ -885,24 +711,10 @@
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>კპოკპო</t>
-        </is>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>იპკოკ</t>
-        </is>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="4" t="n">
@@ -910,24 +722,10 @@
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>jlkj</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>;klk</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="4" t="n">
@@ -935,24 +733,10 @@
       </c>
       <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="n"/>
-      <c r="D21" s="9" t="inlineStr">
-        <is>
-          <t>kjlk</t>
-        </is>
-      </c>
-      <c r="E21" s="9" t="inlineStr">
-        <is>
-          <t>jkjh;</t>
-        </is>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="4" t="n">
@@ -960,24 +744,10 @@
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t>jlj</t>
-        </is>
-      </c>
-      <c r="E22" s="9" t="inlineStr">
-        <is>
-          <t>ljh</t>
-        </is>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="G22" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="n">
@@ -985,24 +755,10 @@
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>oijoi</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>kijio</t>
-        </is>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="G23" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="4" t="n">
@@ -1010,24 +766,10 @@
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>oijoij</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>iojioji</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G24" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="4" t="n">
@@ -1035,24 +777,10 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>wef</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>34retq</t>
-        </is>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="G25" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="4" t="n">
@@ -1060,24 +788,10 @@
       </c>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>wefwef</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>wefwef</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="G26" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="4" t="n">
@@ -1085,24 +799,10 @@
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="n"/>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="F27" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="G27" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="4" t="n">
@@ -1110,24 +810,10 @@
       </c>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>qwqw</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>qwdqwd</t>
-        </is>
-      </c>
-      <c r="F28" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="G28" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="4" t="n">
@@ -1135,24 +821,10 @@
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
-      <c r="D29" s="9" t="inlineStr">
-        <is>
-          <t>wewef</t>
-        </is>
-      </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>E4234R</t>
-        </is>
-      </c>
-      <c r="F29" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="G29" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="4" t="n">
@@ -1160,20 +832,10 @@
       </c>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
-      <c r="D30" s="9" t="inlineStr"/>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>MAKSIM BORONENKOSHVILI</t>
-        </is>
-      </c>
-      <c r="F30" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="4" t="n">
@@ -1181,24 +843,10 @@
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>укпукп</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>AAAAA</t>
-        </is>
-      </c>
-      <c r="F31" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="4" t="n">
@@ -1206,24 +854,10 @@
       </c>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>898989</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>DIMITRI JIOSHVILI</t>
-        </is>
-      </c>
-      <c r="F32" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G32" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="4" t="n">
@@ -1231,20 +865,10 @@
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
-      <c r="D33" s="9" t="inlineStr"/>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>ERHGKJH</t>
-        </is>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="G33" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="4" t="n">
@@ -1252,24 +876,10 @@
       </c>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>2982430482308</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>AKAKI TSERETELI</t>
-        </is>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G34" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D34" s="3" t="n"/>
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="n"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="4" t="n">
@@ -1277,24 +887,10 @@
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
-      <c r="D35" s="9" t="inlineStr">
-        <is>
-          <t>posefepok</t>
-        </is>
-      </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>APOWEFOK</t>
-        </is>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G35" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="4" t="n">
@@ -1302,24 +898,10 @@
       </c>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>39434532090</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>BATU SKHIRTLADZE</t>
-        </is>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="G36" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
+      <c r="G36" s="3" t="n"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="4" t="n">
@@ -1327,24 +909,10 @@
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
-      <c r="D37" s="9" t="inlineStr">
-        <is>
-          <t>293410328</t>
-        </is>
-      </c>
-      <c r="E37" s="9" t="inlineStr">
-        <is>
-          <t>GIORGI METREVELI</t>
-        </is>
-      </c>
-      <c r="F37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="4" t="n">
@@ -1352,20 +920,10 @@
       </c>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
-      <c r="D38" s="9" t="inlineStr"/>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>MALKHAZ LOMIDZE</t>
-        </is>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="D38" s="3" t="n"/>
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="3" t="n"/>
+      <c r="G38" s="3" t="n"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="4" t="n">
@@ -1677,11 +1235,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Sylfaen"/>
       <family val="2"/>
@@ -43,6 +43,9 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -111,6 +114,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -579,10 +585,24 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -587,12 +587,12 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -587,12 +587,12 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,14 +20,14 @@
   <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <name val="Sylfaen"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Sylfaen"/>
+      <name val="Cambria"/>
       <charset val="204"/>
       <family val="1"/>
       <b val="1"/>
@@ -36,7 +36,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <name val="Sylfaen"/>
+      <name val="Cambria"/>
       <charset val="204"/>
       <family val="1"/>
       <b val="1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -504,7 +504,7 @@
     <row r="1" ht="24.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
-          <t>Ведомость №..........</t>
+          <t>Ведомость №_ _ _ _ _ _ _ _</t>
         </is>
       </c>
     </row>
@@ -518,21 +518,21 @@
     <row r="3" ht="27.75" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>Время отправления 11ºº Дата «_______» __________________2023г.</t>
+          <t>Время отправления _ _ _ _ _ _ _ _ _ _ _ _ Дата «_ _ _ _ _ _» _ _ _ _ _ _ _ _ _ _ _ _ _ 20_ _ _ _ _г.</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>Маршрут:    Тбилиси-Москва</t>
+          <t>Маршрут:    _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _</t>
         </is>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>Водители: ______________  _________________________</t>
+          <t>Водители: _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _    _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _</t>
         </is>
       </c>
       <c r="B5" s="8" t="n"/>
@@ -587,22 +587,18 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>iuewifuwe</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>HIUHU IUHUIHIU</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G7" s="9" t="inlineStr"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">
@@ -978,7 +974,7 @@
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
     </row>
-    <row r="42" ht="16.2" customHeight="1">
+    <row r="42" ht="15.6" customHeight="1">
       <c r="A42" s="4" t="n">
         <v>36</v>
       </c>
@@ -989,7 +985,7 @@
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
     </row>
-    <row r="43" ht="16.2" customHeight="1">
+    <row r="43" ht="15.6" customHeight="1">
       <c r="A43" s="4" t="n">
         <v>37</v>
       </c>
@@ -1000,7 +996,7 @@
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
     </row>
-    <row r="44" ht="16.2" customHeight="1">
+    <row r="44" ht="15.6" customHeight="1">
       <c r="A44" s="4" t="n">
         <v>38</v>
       </c>
@@ -1011,7 +1007,7 @@
       <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
     </row>
-    <row r="45" ht="16.2" customHeight="1">
+    <row r="45" ht="15.6" customHeight="1">
       <c r="A45" s="4" t="n">
         <v>39</v>
       </c>
@@ -1022,7 +1018,7 @@
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
     </row>
-    <row r="46" ht="16.2" customHeight="1">
+    <row r="46" ht="15.6" customHeight="1">
       <c r="A46" s="4" t="n">
         <v>40</v>
       </c>
@@ -1033,7 +1029,7 @@
       <c r="F46" s="3" t="n"/>
       <c r="G46" s="3" t="n"/>
     </row>
-    <row r="47" ht="16.2" customHeight="1">
+    <row r="47" ht="15.6" customHeight="1">
       <c r="A47" s="4" t="n">
         <v>41</v>
       </c>
@@ -1044,7 +1040,7 @@
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
     </row>
-    <row r="48" ht="16.2" customHeight="1">
+    <row r="48" ht="15.6" customHeight="1">
       <c r="A48" s="4" t="n">
         <v>42</v>
       </c>
@@ -1055,7 +1051,7 @@
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
     </row>
-    <row r="49" ht="16.2" customHeight="1">
+    <row r="49" ht="15.6" customHeight="1">
       <c r="A49" s="4" t="n">
         <v>43</v>
       </c>
@@ -1066,7 +1062,7 @@
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
     </row>
-    <row r="50" ht="16.2" customHeight="1">
+    <row r="50" ht="15.6" customHeight="1">
       <c r="A50" s="4" t="n">
         <v>44</v>
       </c>
@@ -1077,7 +1073,7 @@
       <c r="F50" s="3" t="n"/>
       <c r="G50" s="3" t="n"/>
     </row>
-    <row r="51" ht="16.2" customHeight="1">
+    <row r="51" ht="15.6" customHeight="1">
       <c r="A51" s="4" t="n">
         <v>45</v>
       </c>
@@ -1088,7 +1084,7 @@
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="3" t="n"/>
     </row>
-    <row r="52" ht="16.2" customHeight="1">
+    <row r="52" ht="15.6" customHeight="1">
       <c r="A52" s="4" t="n">
         <v>46</v>
       </c>
@@ -1099,7 +1095,7 @@
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
     </row>
-    <row r="53" ht="16.2" customHeight="1">
+    <row r="53" ht="15.6" customHeight="1">
       <c r="A53" s="4" t="n">
         <v>47</v>
       </c>
@@ -1110,7 +1106,7 @@
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
     </row>
-    <row r="54" ht="16.2" customHeight="1">
+    <row r="54" ht="15.6" customHeight="1">
       <c r="A54" s="4" t="n">
         <v>48</v>
       </c>
@@ -1121,7 +1117,7 @@
       <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="n"/>
     </row>
-    <row r="55" ht="16.2" customHeight="1">
+    <row r="55" ht="15.6" customHeight="1">
       <c r="A55" s="4" t="n">
         <v>49</v>
       </c>
@@ -1132,7 +1128,7 @@
       <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="n"/>
     </row>
-    <row r="56" ht="16.2" customHeight="1">
+    <row r="56" ht="15.6" customHeight="1">
       <c r="A56" s="4" t="n">
         <v>50</v>
       </c>
@@ -1143,7 +1139,7 @@
       <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="n"/>
     </row>
-    <row r="57" ht="16.2" customHeight="1">
+    <row r="57" ht="15.6" customHeight="1">
       <c r="A57" s="4" t="n">
         <v>51</v>
       </c>
@@ -1154,7 +1150,7 @@
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
     </row>
-    <row r="58" ht="16.2" customHeight="1">
+    <row r="58" ht="15.6" customHeight="1">
       <c r="A58" s="4" t="n">
         <v>52</v>
       </c>
@@ -1165,7 +1161,7 @@
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
     </row>
-    <row r="59" ht="16.2" customHeight="1">
+    <row r="59" ht="15.6" customHeight="1">
       <c r="A59" s="4" t="n">
         <v>53</v>
       </c>
@@ -1176,7 +1172,7 @@
       <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="n"/>
     </row>
-    <row r="60" ht="16.2" customHeight="1">
+    <row r="60" ht="15.6" customHeight="1">
       <c r="A60" s="4" t="n">
         <v>54</v>
       </c>
@@ -1187,7 +1183,7 @@
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
     </row>
-    <row r="61" ht="16.2" customHeight="1">
+    <row r="61" ht="15.6" customHeight="1">
       <c r="A61" s="4" t="n">
         <v>55</v>
       </c>
@@ -1198,7 +1194,7 @@
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
     </row>
-    <row r="62" ht="16.2" customHeight="1">
+    <row r="62" ht="15.6" customHeight="1">
       <c r="A62" s="4" t="n">
         <v>56</v>
       </c>
@@ -1209,7 +1205,7 @@
       <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="n"/>
     </row>
-    <row r="63" ht="16.2" customHeight="1">
+    <row r="63" ht="15.6" customHeight="1">
       <c r="A63" s="4" t="n">
         <v>57</v>
       </c>
@@ -1220,7 +1216,7 @@
       <c r="F63" s="3" t="n"/>
       <c r="G63" s="3" t="n"/>
     </row>
-    <row r="64" ht="16.2" customHeight="1">
+    <row r="64" ht="15.6" customHeight="1">
       <c r="A64" s="4" t="n">
         <v>58</v>
       </c>
@@ -1231,7 +1227,7 @@
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
     </row>
-    <row r="65" ht="16.2" customHeight="1">
+    <row r="65" ht="15.6" customHeight="1">
       <c r="A65" s="4" t="n">
         <v>59</v>
       </c>
@@ -1242,7 +1238,7 @@
       <c r="F65" s="3" t="n"/>
       <c r="G65" s="3" t="n"/>
     </row>
-    <row r="66" ht="16.2" customHeight="1">
+    <row r="66" ht="15.6" customHeight="1">
       <c r="A66" s="4" t="n">
         <v>60</v>
       </c>

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,16 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="Sylfaen"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Cambria"/>
+      <name val="Sylfaen"/>
       <charset val="204"/>
       <family val="1"/>
       <b val="1"/>
@@ -36,12 +36,21 @@
       <scheme val="major"/>
     </font>
     <font>
-      <name val="Cambria"/>
+      <name val="Sylfaen"/>
       <charset val="204"/>
       <family val="1"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -92,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -104,6 +113,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -114,7 +129,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -194,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,9 +252,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +287,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +339,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,60 +539,60 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.88671875" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="7.6640625" customWidth="1" min="3" max="3"/>
-    <col width="15.88671875" customWidth="1" min="4" max="4"/>
-    <col width="26.44140625" customWidth="1" min="5" max="5"/>
-    <col width="4.109375" customWidth="1" min="6" max="6"/>
-    <col width="19.5546875" customWidth="1" min="7" max="7"/>
+    <col width="4.875" customWidth="1" min="1" max="1"/>
+    <col width="13.875" customWidth="1" min="2" max="2"/>
+    <col width="6.375" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="26.5" customWidth="1" min="5" max="5"/>
+    <col width="4.125" customWidth="1" min="6" max="6"/>
+    <col width="19.5" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Ведомость №_ _ _ _ _ _ _ _</t>
         </is>
       </c>
     </row>
     <row r="2" ht="27.75" customHeight="1">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Предприятие LTD «AVTOTRANS » </t>
         </is>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Время отправления _ _ _ _ _ _ _ _ _ _ _ _ Дата «_ _ _ _ _ _» _ _ _ _ _ _ _ _ _ _ _ _ _ 20_ _ _ _ _г.</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Время отправления _ _ _ _ __ _ _ _ Дата «_ _ _ _» _ _ _ _ _ 20_ _ _ _ _г.</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Маршрут:    _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _</t>
         </is>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Водители: _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _    _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -548,32 +600,32 @@
           <t>№</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>№билета</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Тариф</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>№ Паспорта</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Конечный пункт</t>
         </is>
@@ -583,44 +635,76 @@
       <c r="A7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="n"/>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>iuewifuwe</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>HIUHU IUHUIHIU</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9" t="inlineStr"/>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="inlineStr"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="n"/>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>14.03.2000</t>
+        </is>
+      </c>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="inlineStr"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="n"/>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>14.03.2000</t>
+        </is>
+      </c>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="inlineStr"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="n">
@@ -974,7 +1058,7 @@
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
     </row>
-    <row r="42" ht="15.6" customHeight="1">
+    <row r="42" ht="18" customHeight="1">
       <c r="A42" s="4" t="n">
         <v>36</v>
       </c>
@@ -985,7 +1069,7 @@
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
     </row>
-    <row r="43" ht="15.6" customHeight="1">
+    <row r="43" ht="18" customHeight="1">
       <c r="A43" s="4" t="n">
         <v>37</v>
       </c>
@@ -996,7 +1080,7 @@
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
     </row>
-    <row r="44" ht="15.6" customHeight="1">
+    <row r="44" ht="18" customHeight="1">
       <c r="A44" s="4" t="n">
         <v>38</v>
       </c>
@@ -1007,7 +1091,7 @@
       <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
     </row>
-    <row r="45" ht="15.6" customHeight="1">
+    <row r="45" ht="18" customHeight="1">
       <c r="A45" s="4" t="n">
         <v>39</v>
       </c>
@@ -1018,7 +1102,7 @@
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
     </row>
-    <row r="46" ht="15.6" customHeight="1">
+    <row r="46" ht="18" customHeight="1">
       <c r="A46" s="4" t="n">
         <v>40</v>
       </c>
@@ -1029,7 +1113,7 @@
       <c r="F46" s="3" t="n"/>
       <c r="G46" s="3" t="n"/>
     </row>
-    <row r="47" ht="15.6" customHeight="1">
+    <row r="47" ht="18" customHeight="1">
       <c r="A47" s="4" t="n">
         <v>41</v>
       </c>
@@ -1040,7 +1124,7 @@
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
     </row>
-    <row r="48" ht="15.6" customHeight="1">
+    <row r="48" ht="18" customHeight="1">
       <c r="A48" s="4" t="n">
         <v>42</v>
       </c>
@@ -1051,7 +1135,7 @@
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
     </row>
-    <row r="49" ht="15.6" customHeight="1">
+    <row r="49" ht="18" customHeight="1">
       <c r="A49" s="4" t="n">
         <v>43</v>
       </c>
@@ -1062,7 +1146,7 @@
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
     </row>
-    <row r="50" ht="15.6" customHeight="1">
+    <row r="50" ht="18" customHeight="1">
       <c r="A50" s="4" t="n">
         <v>44</v>
       </c>
@@ -1073,7 +1157,7 @@
       <c r="F50" s="3" t="n"/>
       <c r="G50" s="3" t="n"/>
     </row>
-    <row r="51" ht="15.6" customHeight="1">
+    <row r="51" ht="18" customHeight="1">
       <c r="A51" s="4" t="n">
         <v>45</v>
       </c>
@@ -1084,7 +1168,7 @@
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="3" t="n"/>
     </row>
-    <row r="52" ht="15.6" customHeight="1">
+    <row r="52" ht="18" customHeight="1">
       <c r="A52" s="4" t="n">
         <v>46</v>
       </c>
@@ -1095,7 +1179,7 @@
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
     </row>
-    <row r="53" ht="15.6" customHeight="1">
+    <row r="53" ht="18" customHeight="1">
       <c r="A53" s="4" t="n">
         <v>47</v>
       </c>
@@ -1106,7 +1190,7 @@
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
     </row>
-    <row r="54" ht="15.6" customHeight="1">
+    <row r="54" ht="18" customHeight="1">
       <c r="A54" s="4" t="n">
         <v>48</v>
       </c>
@@ -1117,7 +1201,7 @@
       <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="n"/>
     </row>
-    <row r="55" ht="15.6" customHeight="1">
+    <row r="55" ht="18" customHeight="1">
       <c r="A55" s="4" t="n">
         <v>49</v>
       </c>
@@ -1128,7 +1212,7 @@
       <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="n"/>
     </row>
-    <row r="56" ht="15.6" customHeight="1">
+    <row r="56" ht="18" customHeight="1">
       <c r="A56" s="4" t="n">
         <v>50</v>
       </c>
@@ -1139,7 +1223,7 @@
       <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="n"/>
     </row>
-    <row r="57" ht="15.6" customHeight="1">
+    <row r="57" ht="18" customHeight="1">
       <c r="A57" s="4" t="n">
         <v>51</v>
       </c>
@@ -1150,7 +1234,7 @@
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
     </row>
-    <row r="58" ht="15.6" customHeight="1">
+    <row r="58" ht="18" customHeight="1">
       <c r="A58" s="4" t="n">
         <v>52</v>
       </c>
@@ -1161,7 +1245,7 @@
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
     </row>
-    <row r="59" ht="15.6" customHeight="1">
+    <row r="59" ht="18" customHeight="1">
       <c r="A59" s="4" t="n">
         <v>53</v>
       </c>
@@ -1172,7 +1256,7 @@
       <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="n"/>
     </row>
-    <row r="60" ht="15.6" customHeight="1">
+    <row r="60" ht="18" customHeight="1">
       <c r="A60" s="4" t="n">
         <v>54</v>
       </c>
@@ -1183,7 +1267,7 @@
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
     </row>
-    <row r="61" ht="15.6" customHeight="1">
+    <row r="61" ht="18" customHeight="1">
       <c r="A61" s="4" t="n">
         <v>55</v>
       </c>
@@ -1194,7 +1278,7 @@
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
     </row>
-    <row r="62" ht="15.6" customHeight="1">
+    <row r="62" ht="18" customHeight="1">
       <c r="A62" s="4" t="n">
         <v>56</v>
       </c>
@@ -1205,7 +1289,7 @@
       <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="n"/>
     </row>
-    <row r="63" ht="15.6" customHeight="1">
+    <row r="63" ht="18" customHeight="1">
       <c r="A63" s="4" t="n">
         <v>57</v>
       </c>
@@ -1216,7 +1300,7 @@
       <c r="F63" s="3" t="n"/>
       <c r="G63" s="3" t="n"/>
     </row>
-    <row r="64" ht="15.6" customHeight="1">
+    <row r="64" ht="18" customHeight="1">
       <c r="A64" s="4" t="n">
         <v>58</v>
       </c>
@@ -1227,7 +1311,7 @@
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
     </row>
-    <row r="65" ht="15.6" customHeight="1">
+    <row r="65" ht="18" customHeight="1">
       <c r="A65" s="4" t="n">
         <v>59</v>
       </c>
@@ -1238,7 +1322,7 @@
       <c r="F65" s="3" t="n"/>
       <c r="G65" s="3" t="n"/>
     </row>
-    <row r="66" ht="15.6" customHeight="1">
+    <row r="66" ht="18" customHeight="1">
       <c r="A66" s="4" t="n">
         <v>60</v>
       </c>
@@ -1274,7 +1358,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1292,7 +1376,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Sylfaen"/>
       <family val="2"/>
@@ -52,9 +52,6 @@
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -129,12 +126,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -635,76 +626,34 @@
       <c r="A7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
+      <c r="B7" s="6" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12" t="inlineStr"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>14.03.2000</t>
-        </is>
-      </c>
+      <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="12" t="inlineStr"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="inlineStr">
-        <is>
-          <t>14.03.2000</t>
-        </is>
-      </c>
+      <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="12" t="inlineStr">
-        <is>
-          <t>123123</t>
-        </is>
-      </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>123123</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="12" t="inlineStr"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="n">

--- a/Ведомость.xlsx
+++ b/Ведомость.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Sylfaen"/>
       <family val="2"/>
@@ -52,6 +52,9 @@
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -126,6 +129,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -626,23 +635,51 @@
       <c r="A7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="n"/>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>uihuiho</t>
+        </is>
+      </c>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>iuhiuoh</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>HINHUI</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="inlineStr"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="n"/>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>iuhegi</t>
+        </is>
+      </c>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>hreoiguwhiuh</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>UINADIFHAIU</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="inlineStr"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="n">
